--- a/W8/Excel/SWP391-OnlineShopping-Weekly Report - W8.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping-Weekly Report - W8.xlsx
@@ -456,18 +456,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546332</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>103803</xdr:rowOff>
+      <xdr:colOff>527280</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>18194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -480,8 +480,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="449580" y="15209520"/>
-          <a:ext cx="10764752" cy="6687483"/>
+          <a:off x="449580" y="7894320"/>
+          <a:ext cx="10745700" cy="7516274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>517753</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>122856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="15392400"/>
+          <a:ext cx="10736173" cy="6706536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/W8/Excel/SWP391-OnlineShopping-Weekly Report - W8.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping-Weekly Report - W8.xlsx
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
